--- a/apifile/VehicleController.xlsx
+++ b/apifile/VehicleController.xlsx
@@ -450,15 +450,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
-    <col width="66.875" customWidth="1" min="1" max="1"/>
+    <col width="126.375" customWidth="1" min="1" max="1"/>
     <col width="54.375" customWidth="1" min="3" max="3"/>
     <col width="41.875" customWidth="1" min="6" max="6"/>
     <col width="19.5" customWidth="1" min="7" max="7"/>
@@ -514,12 +514,12 @@
       </c>
       <c r="B2" s="7" t="inlineStr">
         <is>
-          <t>post</t>
+          <t>put</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>{'uid': 'testXaI41R69', 'type': 'LIGHTPOLE', 'name': 'testXaI41R69', 'deviceArea': '001', 'manager': '001', 'installationDate': '2020-11-10', 'qualityAssuranceDate': '2020-11-30', 'address': '广东省广州市南沙区黄阁镇广州南沙政务服务中心广州市南沙区人民政府', 'status': 'NORMAL', 'location': {'coordinateSystemType': 'GCJ02', 'coordinates': [113.526816, 22.801711], 'type': 'Point'}}</t>
+          <t>{'uid': 'testVILMxdvs', 'type': 'LIGHTPOLE', 'name': 'testVILMxdvs', 'deviceArea': '001', 'manager': '001', 'installationDate': '2020-11-10', 'qualityAssuranceDate': '2020-11-29', 'address': '广东省广州市南沙区南沙街道南沙碧桂园倚荔轩南沙碧桂园-漾月轩', 'status': 'NORMAL', 'location': {'coordinateSystemType': 'GCJ02', 'coordinates': [113.555655, 22.794303], 'type': 'Point'}, 'id': '776396329426046976'}</t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
@@ -533,24 +533,19 @@
       <c r="F2" s="7" t="n"/>
       <c r="G2" s="7" t="inlineStr">
         <is>
-          <t>新增载体</t>
+          <t>更新载体</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="228" customHeight="1">
-      <c r="A3" s="6" t="inlineStr">
-        <is>
-          <t>http://island.dev.iot-cas.com:8081/island/vehicle</t>
-        </is>
-      </c>
-      <c r="B3" s="7" t="inlineStr">
-        <is>
-          <t>put</t>
-        </is>
-      </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>{'uid': '111', 'type': 'LIGHTPOLE', 'name': '11', 'deviceArea': '001', 'manager': '001', 'installationDate': '2020-11-10', 'qualityAssuranceDate': '2020-11-29', 'address': '广东省广州市南沙区南沙街道南沙碧桂园倚荔轩南沙碧桂园-漾月轩', 'status': 'NORMAL', 'location': {'coordinateSystemType': 'GCJ02', 'coordinates': [113.555655, 22.794303], 'type': 'Point'}, 'id': None}</t>
+    <row r="3" ht="18.75" customHeight="1">
+      <c r="A3" s="9" t="inlineStr">
+        <is>
+          <t>http://island.dev.iot-cas.com:8081/island/vehicle/byName?name=test1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>get</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -561,17 +556,16 @@
       <c r="E3" s="5" t="n">
         <v>200</v>
       </c>
-      <c r="F3" s="7" t="n"/>
-      <c r="G3" s="7" t="inlineStr">
-        <is>
-          <t>更新载体</t>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>校验名称</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
       <c r="A4" s="9" t="inlineStr">
         <is>
-          <t>http://island.dev.iot-cas.com:8081/island/vehicle/byName?name=test1</t>
+          <t>http://island.dev.iot-cas.com:8081/island/vehicle/byUid?uid=1111</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -589,14 +583,14 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>校验名称</t>
+          <t>校验uid</t>
         </is>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="9" t="inlineStr">
-        <is>
-          <t>http://island.dev.iot-cas.com:8081/island/vehicle/byUid?uid=1111</t>
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>http://island.dev.iot-cas.com:8081/island/vehicle/select</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -612,16 +606,16 @@
       <c r="E5" s="5" t="n">
         <v>200</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>校验uid</t>
+      <c r="G5" s="10" t="inlineStr">
+        <is>
+          <t>查询载体类型下拉框内容</t>
         </is>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>http://island.dev.iot-cas.com:8081/island/vehicle/select</t>
+          <t>http://island.dev.iot-cas.com:8081/island/vehicles?pageSize=10&amp;pageNum=2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -637,21 +631,21 @@
       <c r="E6" s="5" t="n">
         <v>200</v>
       </c>
-      <c r="G6" s="10" t="inlineStr">
-        <is>
-          <t>查询载体类型下拉框内容</t>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>分页查询</t>
         </is>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>http://island.dev.iot-cas.com:8081/island/vehicle/template</t>
+      <c r="A7" s="9" t="inlineStr">
+        <is>
+          <t>http://island.dev.iot-cas.com:8081/island/vehicles?ids=776396329426046976</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>get</t>
+          <t>delete</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -660,59 +654,9 @@
         </is>
       </c>
       <c r="E7" s="5" t="n">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G7" t="inlineStr">
-        <is>
-          <t>下载模板</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="18.75" customHeight="1">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>http://island.dev.iot-cas.com:8081/island/vehicles?pageSize=10&amp;pageNum=1</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E8" s="5" t="n">
-        <v>200</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>分页查询</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="18.75" customHeight="1">
-      <c r="A9" s="9" t="inlineStr">
-        <is>
-          <t>http://island.dev.iot-cas.com:8081/island/vehicles?ids=775751603627540480</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>delete</t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>204</v>
-      </c>
-      <c r="G9" t="inlineStr">
         <is>
           <t>删除载体</t>
         </is>
@@ -725,9 +669,6 @@
     <hyperlink ref="A4" r:id="rId3"/>
     <hyperlink ref="A5" r:id="rId4"/>
     <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A7" r:id="rId6"/>
-    <hyperlink ref="A8" r:id="rId7"/>
-    <hyperlink ref="A9" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/apifile/VehicleController.xlsx
+++ b/apifile/VehicleController.xlsx
@@ -519,7 +519,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>{'uid': 'testVILMxdvs', 'type': 'LIGHTPOLE', 'name': 'testVILMxdvs', 'deviceArea': '001', 'manager': '001', 'installationDate': '2020-11-10', 'qualityAssuranceDate': '2020-11-29', 'address': '广东省广州市南沙区南沙街道南沙碧桂园倚荔轩南沙碧桂园-漾月轩', 'status': 'NORMAL', 'location': {'coordinateSystemType': 'GCJ02', 'coordinates': [113.555655, 22.794303], 'type': 'Point'}, 'id': '776396329426046976'}</t>
+          <t>{'uid': 'testLQO8WYJB', 'type': 'LIGHTPOLE', 'name': 'testLQO8WYJB', 'deviceArea': '001', 'manager': '001', 'installationDate': '2020-11-10', 'qualityAssuranceDate': '2020-11-29', 'address': '广东省广州市南沙区南沙街道南沙碧桂园倚荔轩南沙碧桂园-漾月轩', 'status': 'NORMAL', 'location': {'coordinateSystemType': 'GCJ02', 'coordinates': [113.555655, 22.794303], 'type': 'Point'}, 'id': '780457069008711680'}</t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="7" ht="18.75" customHeight="1">
       <c r="A7" s="9" t="inlineStr">
         <is>
-          <t>http://island.dev.iot-cas.com:8081/island/vehicles?ids=776396329426046976</t>
+          <t>http://island.dev.iot-cas.com:8081/island/vehicles?ids=780457069008711680</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">

--- a/apifile/VehicleController.xlsx
+++ b/apifile/VehicleController.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5085" yWindow="1380" windowWidth="28800" windowHeight="15435" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -453,7 +453,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
@@ -509,7 +509,7 @@
     <row r="2" ht="228" customHeight="1">
       <c r="A2" s="6" t="inlineStr">
         <is>
-          <t>http://island.dev.iot-cas.com:8081/island/vehicle</t>
+          <t>http://island.iot-cas.com:8081/island/vehicle</t>
         </is>
       </c>
       <c r="B2" s="7" t="inlineStr">
@@ -519,7 +519,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>{'uid': 'testLQO8WYJB', 'type': 'LIGHTPOLE', 'name': 'testLQO8WYJB', 'deviceArea': '001', 'manager': '001', 'installationDate': '2020-11-10', 'qualityAssuranceDate': '2020-11-29', 'address': '广东省广州市南沙区南沙街道南沙碧桂园倚荔轩南沙碧桂园-漾月轩', 'status': 'NORMAL', 'location': {'coordinateSystemType': 'GCJ02', 'coordinates': [113.555655, 22.794303], 'type': 'Point'}, 'id': '780457069008711680'}</t>
+          <t>{'uid': 'test0oj2W3ygup', 'type': 'LIGHTPOLE', 'name': 'test0oj2W3ygup', 'deviceArea': '001', 'manager': '001', 'installationDate': '2020-12-14', 'qualityAssuranceDate': '2022-12-29T00:00:00', 'address': '广东省广州市南沙区南沙街道逸涛雅苑', 'status': 'NORMAL', 'location': {'coordinateSystemType': 'GCJ02', 'coordinates': [113.536772, 22.80361], 'type': 'Point'}, 'id': '788077118483984384'}</t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
@@ -540,7 +540,7 @@
     <row r="3" ht="18.75" customHeight="1">
       <c r="A3" s="9" t="inlineStr">
         <is>
-          <t>http://island.dev.iot-cas.com:8081/island/vehicle/byName?name=test1</t>
+          <t>http://island.iot-cas.com:8081/island/vehicle/byName?name=test1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -565,7 +565,7 @@
     <row r="4" ht="18.75" customHeight="1">
       <c r="A4" s="9" t="inlineStr">
         <is>
-          <t>http://island.dev.iot-cas.com:8081/island/vehicle/byUid?uid=1111</t>
+          <t>http://island.iot-cas.com:8081/island/vehicle/byUid?uid=1111</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -590,7 +590,7 @@
     <row r="5" ht="18.75" customHeight="1">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>http://island.dev.iot-cas.com:8081/island/vehicle/select</t>
+          <t>http://island.iot-cas.com:8081/island/vehicle/select</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -615,7 +615,7 @@
     <row r="6" ht="18.75" customHeight="1">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>http://island.dev.iot-cas.com:8081/island/vehicles?pageSize=10&amp;pageNum=2</t>
+          <t>http://island.iot-cas.com:8081/island/vehicles?pageSize=10&amp;pageNum=2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="7" ht="18.75" customHeight="1">
       <c r="A7" s="9" t="inlineStr">
         <is>
-          <t>http://island.dev.iot-cas.com:8081/island/vehicles?ids=780457069008711680</t>
+          <t>http://island.iot-cas.com:8081/island/vehicles?ids=788077118483984384</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -664,11 +664,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A2" display="http://island.dev.iot-cas.com:8081/island/vehicle" r:id="rId1"/>
+    <hyperlink ref="A3" display="http://island.dev.iot-cas.com:8081/island/vehicle/byName?name=test1" r:id="rId2"/>
+    <hyperlink ref="A4" display="http://island.dev.iot-cas.com:8081/island/vehicle/byUid?uid=1111" r:id="rId3"/>
+    <hyperlink ref="A5" display="http://island.dev.iot-cas.com:8081/island/vehicle/select" r:id="rId4"/>
+    <hyperlink ref="A6" display="http://island.dev.iot-cas.com:8081/island/vehicles?pageSize=10&amp;pageNum=2" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
